--- a/slats_biomass_field_data_w2023_2024_v4.xlsx
+++ b/slats_biomass_field_data_w2023_2024_v4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robot\projects\biomass\field_sites\slats\including_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:109_{00AF11B4-550D-4C22-A8CA-CEEA49846AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F909453-9EB6-4D6F-A461-B0ACE9A07352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="3450" windowWidth="21600" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="3090" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="slats_biomass_field_data_w2023_" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3349" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="681">
   <si>
     <t>uid</t>
   </si>
@@ -2242,7 +2242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2273,6 +2273,11 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2557,8 +2562,8 @@
   <dimension ref="A1:IM421"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F124" sqref="F124:G145"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8674,7 +8679,7 @@
       <c r="IH16" s="3"/>
       <c r="IK16" s="3"/>
     </row>
-    <row r="17" spans="1:245" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:247" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -8766,99 +8771,313 @@
       <c r="IH17" s="3"/>
       <c r="IK17" s="3"/>
     </row>
-    <row r="18" spans="1:245" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:247" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="29">
         <v>41425</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="29">
         <v>41425</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="28">
         <v>53</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="28">
         <v>296710.998303</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="28">
         <v>8317787.7797900001</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
+      <c r="K18" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="L18" s="28">
+        <v>4</v>
+      </c>
+      <c r="O18" s="30"/>
+      <c r="Q18" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="BA18" s="3"/>
-      <c r="BD18" s="3"/>
-      <c r="BG18" s="3"/>
-      <c r="BJ18" s="3"/>
-      <c r="BM18" s="3"/>
-      <c r="BP18" s="3"/>
-      <c r="BS18" s="3"/>
-      <c r="BV18" s="3"/>
-      <c r="BY18" s="3"/>
-      <c r="CB18" s="3"/>
-      <c r="CH18" s="3"/>
-      <c r="CK18" s="3"/>
-      <c r="CN18" s="3"/>
-      <c r="CQ18" s="3"/>
-      <c r="CT18" s="3"/>
-      <c r="CW18" s="3"/>
-      <c r="CZ18" s="3"/>
-      <c r="DC18" s="3"/>
-      <c r="DF18" s="3"/>
-      <c r="DI18" s="3"/>
-      <c r="DO18" s="3"/>
-      <c r="DR18" s="3"/>
-      <c r="DU18" s="3"/>
-      <c r="DX18" s="3"/>
-      <c r="EA18" s="3"/>
-      <c r="ED18" s="3"/>
-      <c r="EG18" s="3"/>
-      <c r="EJ18" s="3"/>
-      <c r="EM18" s="3"/>
-      <c r="EP18" s="3"/>
-      <c r="EV18" s="3"/>
-      <c r="EY18" s="3"/>
-      <c r="FB18" s="3"/>
-      <c r="FE18" s="3"/>
-      <c r="FH18" s="3"/>
-      <c r="FK18" s="3"/>
-      <c r="FN18" s="3"/>
-      <c r="FQ18" s="3"/>
-      <c r="FT18" s="3"/>
-      <c r="FW18" s="3"/>
-      <c r="GC18" s="3"/>
-      <c r="GF18" s="3"/>
-      <c r="GI18" s="3"/>
-      <c r="GL18" s="3"/>
-      <c r="GO18" s="3"/>
-      <c r="GR18" s="3"/>
-      <c r="GU18" s="3"/>
-      <c r="GX18" s="3"/>
-      <c r="HA18" s="3"/>
-      <c r="HD18" s="3"/>
-      <c r="HJ18" s="3"/>
-      <c r="HM18" s="3"/>
-      <c r="HP18" s="3"/>
-      <c r="HS18" s="3"/>
-      <c r="HV18" s="3"/>
-      <c r="HY18" s="3"/>
-      <c r="IB18" s="3"/>
-      <c r="IE18" s="3"/>
-      <c r="IH18" s="3"/>
-      <c r="IK18" s="3"/>
+      <c r="R18" s="22">
+        <v>3</v>
+      </c>
+      <c r="S18" s="22">
+        <v>0</v>
+      </c>
+      <c r="T18" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="U18" s="22">
+        <v>1</v>
+      </c>
+      <c r="V18" s="22">
+        <v>0</v>
+      </c>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="22"/>
+      <c r="AH18" s="22"/>
+      <c r="AI18" s="22"/>
+      <c r="AJ18" s="22"/>
+      <c r="AK18" s="22"/>
+      <c r="AL18" s="22"/>
+      <c r="AM18" s="22"/>
+      <c r="AN18" s="22"/>
+      <c r="AO18" s="22"/>
+      <c r="AP18" s="22"/>
+      <c r="AQ18" s="22"/>
+      <c r="AR18" s="22"/>
+      <c r="AS18" s="22"/>
+      <c r="AT18" s="22"/>
+      <c r="AU18" s="22"/>
+      <c r="AV18" s="22"/>
+      <c r="AW18" s="22"/>
+      <c r="AX18" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY18" s="22">
+        <v>8</v>
+      </c>
+      <c r="AZ18" s="22">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB18" s="22">
+        <v>1</v>
+      </c>
+      <c r="BC18" s="22">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="22" t="s">
+        <v>622</v>
+      </c>
+      <c r="BE18" s="22">
+        <v>1</v>
+      </c>
+      <c r="BF18" s="22">
+        <v>0</v>
+      </c>
+      <c r="BG18" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="BH18" s="22">
+        <v>2</v>
+      </c>
+      <c r="BI18" s="22">
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="22"/>
+      <c r="BK18" s="22"/>
+      <c r="BL18" s="22"/>
+      <c r="BM18" s="22"/>
+      <c r="BN18" s="22"/>
+      <c r="BO18" s="22"/>
+      <c r="BP18" s="22"/>
+      <c r="BQ18" s="22"/>
+      <c r="BR18" s="22"/>
+      <c r="BS18" s="22"/>
+      <c r="BT18" s="22"/>
+      <c r="BU18" s="22"/>
+      <c r="BV18" s="22"/>
+      <c r="BW18" s="22"/>
+      <c r="BX18" s="22"/>
+      <c r="BY18" s="22"/>
+      <c r="BZ18" s="22"/>
+      <c r="CA18" s="22"/>
+      <c r="CB18" s="22"/>
+      <c r="CC18" s="22"/>
+      <c r="CD18" s="22"/>
+      <c r="CE18" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF18" s="22">
+        <v>1</v>
+      </c>
+      <c r="CG18" s="22">
+        <v>0</v>
+      </c>
+      <c r="CH18" s="22"/>
+      <c r="CI18" s="22"/>
+      <c r="CJ18" s="22"/>
+      <c r="CK18" s="22"/>
+      <c r="CL18" s="22"/>
+      <c r="CM18" s="22"/>
+      <c r="CN18" s="22"/>
+      <c r="CO18" s="22"/>
+      <c r="CP18" s="22"/>
+      <c r="CQ18" s="22"/>
+      <c r="CR18" s="22"/>
+      <c r="CS18" s="22"/>
+      <c r="CT18" s="22"/>
+      <c r="CU18" s="22"/>
+      <c r="CV18" s="22"/>
+      <c r="CW18" s="22"/>
+      <c r="CX18" s="22"/>
+      <c r="CY18" s="22"/>
+      <c r="CZ18" s="22"/>
+      <c r="DA18" s="22"/>
+      <c r="DB18" s="22"/>
+      <c r="DC18" s="22"/>
+      <c r="DD18" s="22"/>
+      <c r="DE18" s="22"/>
+      <c r="DF18" s="22"/>
+      <c r="DG18" s="22"/>
+      <c r="DH18" s="22"/>
+      <c r="DI18" s="22"/>
+      <c r="DJ18" s="22"/>
+      <c r="DK18" s="22"/>
+      <c r="DL18" s="22"/>
+      <c r="DM18" s="22"/>
+      <c r="DN18" s="22"/>
+      <c r="DO18" s="22"/>
+      <c r="DP18" s="22"/>
+      <c r="DQ18" s="22"/>
+      <c r="DR18" s="22"/>
+      <c r="DS18" s="22"/>
+      <c r="DT18" s="22"/>
+      <c r="DU18" s="22"/>
+      <c r="DV18" s="22"/>
+      <c r="DW18" s="22"/>
+      <c r="DX18" s="22"/>
+      <c r="DY18" s="22"/>
+      <c r="DZ18" s="22"/>
+      <c r="EA18" s="22"/>
+      <c r="EB18" s="22"/>
+      <c r="EC18" s="22"/>
+      <c r="ED18" s="22"/>
+      <c r="EE18" s="22"/>
+      <c r="EF18" s="22"/>
+      <c r="EG18" s="22"/>
+      <c r="EH18" s="22"/>
+      <c r="EI18" s="22"/>
+      <c r="EJ18" s="22"/>
+      <c r="EK18" s="22"/>
+      <c r="EL18" s="22"/>
+      <c r="EM18" s="22"/>
+      <c r="EN18" s="22"/>
+      <c r="EO18" s="22"/>
+      <c r="EP18" s="22"/>
+      <c r="EQ18" s="22"/>
+      <c r="ER18" s="22"/>
+      <c r="ES18" s="22"/>
+      <c r="ET18" s="22"/>
+      <c r="EU18" s="22"/>
+      <c r="EV18" s="22"/>
+      <c r="EW18" s="22"/>
+      <c r="EX18" s="22"/>
+      <c r="EY18" s="22"/>
+      <c r="EZ18" s="22"/>
+      <c r="FA18" s="22"/>
+      <c r="FB18" s="22"/>
+      <c r="FC18" s="22"/>
+      <c r="FD18" s="22"/>
+      <c r="FE18" s="22"/>
+      <c r="FF18" s="22"/>
+      <c r="FG18" s="22"/>
+      <c r="FH18" s="22"/>
+      <c r="FI18" s="22"/>
+      <c r="FJ18" s="22"/>
+      <c r="FK18" s="22"/>
+      <c r="FL18" s="22"/>
+      <c r="FM18" s="22"/>
+      <c r="FN18" s="22"/>
+      <c r="FO18" s="22"/>
+      <c r="FP18" s="22"/>
+      <c r="FQ18" s="22"/>
+      <c r="FR18" s="22"/>
+      <c r="FS18" s="22"/>
+      <c r="FT18" s="22"/>
+      <c r="FU18" s="22"/>
+      <c r="FV18" s="22"/>
+      <c r="FW18" s="22"/>
+      <c r="FX18" s="22"/>
+      <c r="FY18" s="22"/>
+      <c r="FZ18" s="22"/>
+      <c r="GA18" s="22"/>
+      <c r="GB18" s="22"/>
+      <c r="GC18" s="22"/>
+      <c r="GD18" s="22"/>
+      <c r="GE18" s="22"/>
+      <c r="GF18" s="22"/>
+      <c r="GG18" s="22"/>
+      <c r="GH18" s="22"/>
+      <c r="GI18" s="22"/>
+      <c r="GJ18" s="22"/>
+      <c r="GK18" s="22"/>
+      <c r="GL18" s="22"/>
+      <c r="GM18" s="22"/>
+      <c r="GN18" s="22"/>
+      <c r="GO18" s="22"/>
+      <c r="GP18" s="22"/>
+      <c r="GQ18" s="22"/>
+      <c r="GR18" s="22"/>
+      <c r="GS18" s="22"/>
+      <c r="GT18" s="22"/>
+      <c r="GU18" s="22"/>
+      <c r="GV18" s="22"/>
+      <c r="GW18" s="22"/>
+      <c r="GX18" s="22"/>
+      <c r="GY18" s="22"/>
+      <c r="GZ18" s="22"/>
+      <c r="HA18" s="22"/>
+      <c r="HB18" s="22"/>
+      <c r="HC18" s="22"/>
+      <c r="HD18" s="22"/>
+      <c r="HE18" s="22"/>
+      <c r="HF18" s="22"/>
+      <c r="HG18" s="22"/>
+      <c r="HH18" s="22"/>
+      <c r="HI18" s="22"/>
+      <c r="HJ18" s="22"/>
+      <c r="HK18" s="22"/>
+      <c r="HL18" s="22"/>
+      <c r="HM18" s="22"/>
+      <c r="HN18" s="22"/>
+      <c r="HO18" s="22"/>
+      <c r="HP18" s="22"/>
+      <c r="HQ18" s="22"/>
+      <c r="HR18" s="22"/>
+      <c r="HS18" s="22"/>
+      <c r="HT18" s="22"/>
+      <c r="HU18" s="22"/>
+      <c r="HV18" s="22"/>
+      <c r="HW18" s="22"/>
+      <c r="HX18" s="22"/>
+      <c r="HY18" s="22"/>
+      <c r="HZ18" s="22"/>
+      <c r="IA18" s="22"/>
+      <c r="IB18" s="22"/>
+      <c r="IC18" s="22"/>
+      <c r="ID18" s="22"/>
+      <c r="IE18" s="22"/>
+      <c r="IF18" s="22"/>
+      <c r="IG18" s="22"/>
+      <c r="IH18" s="22"/>
+      <c r="II18" s="22"/>
+      <c r="IJ18" s="22"/>
+      <c r="IK18" s="22"/>
+      <c r="IL18" s="22"/>
+      <c r="IM18" s="22"/>
     </row>
-    <row r="19" spans="1:245" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:247" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -8950,7 +9169,7 @@
       <c r="IH19" s="3"/>
       <c r="IK19" s="3"/>
     </row>
-    <row r="20" spans="1:245" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:247" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -9042,7 +9261,7 @@
       <c r="IH20" s="3"/>
       <c r="IK20" s="3"/>
     </row>
-    <row r="21" spans="1:245" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:247" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -9134,7 +9353,7 @@
       <c r="IH21" s="3"/>
       <c r="IK21" s="3"/>
     </row>
-    <row r="22" spans="1:245" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:247" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -9226,7 +9445,7 @@
       <c r="IH22" s="3"/>
       <c r="IK22" s="3"/>
     </row>
-    <row r="23" spans="1:245" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:247" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -9309,7 +9528,7 @@
       <c r="IH23" s="3"/>
       <c r="IK23" s="3"/>
     </row>
-    <row r="24" spans="1:245" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:247" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -9392,7 +9611,7 @@
       <c r="IH24" s="3"/>
       <c r="IK24" s="3"/>
     </row>
-    <row r="25" spans="1:245" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:247" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -9741,7 +9960,7 @@
       <c r="IH25" s="3"/>
       <c r="IK25" s="3"/>
     </row>
-    <row r="26" spans="1:245" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:247" ht="30" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -10195,7 +10414,7 @@
       <c r="IH26" s="3"/>
       <c r="IK26" s="3"/>
     </row>
-    <row r="27" spans="1:245" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:247" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -10419,7 +10638,7 @@
       <c r="IH27" s="3"/>
       <c r="IK27" s="3"/>
     </row>
-    <row r="28" spans="1:245" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:247" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -10523,7 +10742,7 @@
       <c r="IH28" s="3"/>
       <c r="IK28" s="3"/>
     </row>
-    <row r="29" spans="1:245" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:247" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -10713,7 +10932,7 @@
       <c r="IH29" s="3"/>
       <c r="IK29" s="3"/>
     </row>
-    <row r="30" spans="1:245" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:247" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -10984,7 +11203,7 @@
       <c r="IH30" s="3"/>
       <c r="IK30" s="3"/>
     </row>
-    <row r="31" spans="1:245" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:247" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -11215,7 +11434,7 @@
       <c r="IH31" s="3"/>
       <c r="IK31" s="3"/>
     </row>
-    <row r="32" spans="1:245" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:247" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>

--- a/slats_biomass_field_data_w2023_2024_v4.xlsx
+++ b/slats_biomass_field_data_w2023_2024_v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robot\projects\biomass\field_sites\slats\including_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F909453-9EB6-4D6F-A461-B0ACE9A07352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BB8C29-BA8D-4B3B-9F3F-41DD16D32DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="3090" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="slats_biomass_field_data_w2023_" sheetId="3" r:id="rId1"/>
@@ -20,17 +20,28 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">slats_biomass_field_data_w2023_!$A$1:$IM$421</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3437" uniqueCount="684">
   <si>
     <t>uid</t>
   </si>
@@ -2073,6 +2084,15 @@
   </si>
   <si>
     <t>lfr102</t>
+  </si>
+  <si>
+    <t>Xanthostemon paradoxus</t>
+  </si>
+  <si>
+    <t>Corymbia foelscheana</t>
+  </si>
+  <si>
+    <t>Pogonolobus reticulatus</t>
   </si>
 </sst>
 </file>
@@ -2242,7 +2262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2278,6 +2298,13 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2561,9 +2588,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IM421"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3910,11 +3937,11 @@
       <c r="IH2" s="3"/>
       <c r="IK2" s="3"/>
     </row>
-    <row r="3" spans="1:247" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:247" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="27">
@@ -3923,87 +3950,697 @@
       <c r="D3" s="27">
         <v>41104</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="19">
         <v>52</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="19">
         <v>717789.00800000003</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="19">
         <v>8601033.8369999994</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
+      <c r="K3" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="L3" s="19">
         <v>7</v>
       </c>
-      <c r="P3" t="s">
+      <c r="O3" s="31"/>
+      <c r="P3" s="19" t="s">
         <v>572</v>
       </c>
-      <c r="BA3" s="3"/>
-      <c r="BD3" s="3"/>
-      <c r="BG3" s="3"/>
-      <c r="BJ3" s="3"/>
-      <c r="BM3" s="3"/>
-      <c r="BP3" s="3"/>
-      <c r="BS3" s="3"/>
-      <c r="BV3" s="3"/>
-      <c r="BY3" s="3"/>
-      <c r="CB3" s="3"/>
-      <c r="CH3" s="3"/>
-      <c r="CK3" s="3"/>
-      <c r="CN3" s="3"/>
-      <c r="CQ3" s="3"/>
-      <c r="CT3" s="3"/>
-      <c r="CW3" s="3"/>
-      <c r="CZ3" s="3"/>
-      <c r="DC3" s="3"/>
-      <c r="DF3" s="3"/>
-      <c r="DI3" s="3"/>
-      <c r="DO3" s="3"/>
-      <c r="DR3" s="3"/>
-      <c r="DU3" s="3"/>
-      <c r="DX3" s="3"/>
-      <c r="EA3" s="3"/>
-      <c r="ED3" s="3"/>
-      <c r="EG3" s="3"/>
-      <c r="EJ3" s="3"/>
-      <c r="EM3" s="3"/>
-      <c r="EP3" s="3"/>
-      <c r="EV3" s="3"/>
-      <c r="EY3" s="3"/>
-      <c r="FB3" s="3"/>
-      <c r="FE3" s="3"/>
-      <c r="FH3" s="3"/>
-      <c r="FK3" s="3"/>
-      <c r="FN3" s="3"/>
-      <c r="FQ3" s="3"/>
-      <c r="FT3" s="3"/>
-      <c r="FW3" s="3"/>
-      <c r="GC3" s="3"/>
-      <c r="GF3" s="3"/>
-      <c r="GI3" s="3"/>
-      <c r="GL3" s="3"/>
-      <c r="GO3" s="3"/>
-      <c r="GR3" s="3"/>
-      <c r="GU3" s="3"/>
-      <c r="GX3" s="3"/>
-      <c r="HA3" s="3"/>
-      <c r="HD3" s="3"/>
-      <c r="HJ3" s="3"/>
-      <c r="HM3" s="3"/>
-      <c r="HP3" s="3"/>
-      <c r="HS3" s="3"/>
-      <c r="HV3" s="3"/>
-      <c r="HY3" s="3"/>
-      <c r="IB3" s="3"/>
-      <c r="IE3" s="3"/>
-      <c r="IH3" s="3"/>
-      <c r="IK3" s="3"/>
+      <c r="Q3" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="33">
+        <v>8</v>
+      </c>
+      <c r="S3" s="33">
+        <v>0</v>
+      </c>
+      <c r="T3" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="U3" s="33">
+        <v>4</v>
+      </c>
+      <c r="V3" s="33">
+        <v>0</v>
+      </c>
+      <c r="W3" s="26" t="s">
+        <v>681</v>
+      </c>
+      <c r="X3" s="33">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA3" s="33">
+        <v>6</v>
+      </c>
+      <c r="AB3" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD3" s="33">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="33">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG3" s="33">
+        <v>12</v>
+      </c>
+      <c r="AH3" s="33">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="AJ3" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="33">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM3" s="33">
+        <v>2</v>
+      </c>
+      <c r="AN3" s="33">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP3" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="33">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS3" s="33">
+        <v>10</v>
+      </c>
+      <c r="AT3" s="33">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="AV3" s="33">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="33">
+        <v>2</v>
+      </c>
+      <c r="AX3" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY3" s="33">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="33">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB3" s="33">
+        <v>3</v>
+      </c>
+      <c r="BC3" s="33">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="26" t="s">
+        <v>681</v>
+      </c>
+      <c r="BE3" s="33">
+        <v>7</v>
+      </c>
+      <c r="BF3" s="33">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH3" s="33">
+        <v>6</v>
+      </c>
+      <c r="BI3" s="33">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="BK3" s="33">
+        <v>3</v>
+      </c>
+      <c r="BL3" s="33">
+        <v>0</v>
+      </c>
+      <c r="BM3" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN3" s="33">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="33">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="26" t="s">
+        <v>682</v>
+      </c>
+      <c r="BQ3" s="33">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="33">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="BT3" s="33">
+        <v>0</v>
+      </c>
+      <c r="BU3" s="33">
+        <v>0</v>
+      </c>
+      <c r="BV3" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="BW3" s="33">
+        <v>0</v>
+      </c>
+      <c r="BX3" s="33">
+        <v>6</v>
+      </c>
+      <c r="BY3" s="26"/>
+      <c r="BZ3" s="34"/>
+      <c r="CA3" s="34"/>
+      <c r="CB3" s="26"/>
+      <c r="CC3" s="34"/>
+      <c r="CD3" s="34"/>
+      <c r="CE3" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="CF3" s="33">
+        <v>2</v>
+      </c>
+      <c r="CG3" s="33">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="CI3" s="33">
+        <v>3</v>
+      </c>
+      <c r="CJ3" s="33">
+        <v>0</v>
+      </c>
+      <c r="CK3" s="26" t="s">
+        <v>681</v>
+      </c>
+      <c r="CL3" s="33">
+        <v>1</v>
+      </c>
+      <c r="CM3" s="33">
+        <v>0</v>
+      </c>
+      <c r="CN3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="CO3" s="33">
+        <v>10</v>
+      </c>
+      <c r="CP3" s="33">
+        <v>0</v>
+      </c>
+      <c r="CQ3" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="CR3" s="33">
+        <v>2</v>
+      </c>
+      <c r="CS3" s="33">
+        <v>0</v>
+      </c>
+      <c r="CT3" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU3" s="33">
+        <v>15</v>
+      </c>
+      <c r="CV3" s="33">
+        <v>0</v>
+      </c>
+      <c r="CW3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="CX3" s="33">
+        <v>1</v>
+      </c>
+      <c r="CY3" s="33">
+        <v>0</v>
+      </c>
+      <c r="CZ3" s="26" t="s">
+        <v>682</v>
+      </c>
+      <c r="DA3" s="33">
+        <v>0</v>
+      </c>
+      <c r="DB3" s="33">
+        <v>0</v>
+      </c>
+      <c r="DC3" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="DD3" s="33">
+        <v>3</v>
+      </c>
+      <c r="DE3" s="33">
+        <v>0</v>
+      </c>
+      <c r="DF3" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="DG3" s="35">
+        <v>1</v>
+      </c>
+      <c r="DH3" s="35">
+        <v>0</v>
+      </c>
+      <c r="DI3" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="DJ3" s="35">
+        <v>0</v>
+      </c>
+      <c r="DK3" s="35">
+        <v>2</v>
+      </c>
+      <c r="DL3" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="DM3" s="33">
+        <v>4</v>
+      </c>
+      <c r="DN3" s="33">
+        <v>0</v>
+      </c>
+      <c r="DO3" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="DP3" s="33">
+        <v>3</v>
+      </c>
+      <c r="DQ3" s="33">
+        <v>0</v>
+      </c>
+      <c r="DR3" s="26" t="s">
+        <v>681</v>
+      </c>
+      <c r="DS3" s="33">
+        <v>2</v>
+      </c>
+      <c r="DT3" s="33">
+        <v>0</v>
+      </c>
+      <c r="DU3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="DV3" s="33">
+        <v>6</v>
+      </c>
+      <c r="DW3" s="33">
+        <v>0</v>
+      </c>
+      <c r="DX3" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="DY3" s="33">
+        <v>2</v>
+      </c>
+      <c r="DZ3" s="33">
+        <v>0</v>
+      </c>
+      <c r="EA3" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="EB3" s="33">
+        <v>10</v>
+      </c>
+      <c r="EC3" s="33">
+        <v>0</v>
+      </c>
+      <c r="ED3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="EE3" s="33">
+        <v>3</v>
+      </c>
+      <c r="EF3" s="33">
+        <v>0</v>
+      </c>
+      <c r="EG3" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="EH3" s="33">
+        <v>0</v>
+      </c>
+      <c r="EI3" s="33">
+        <v>0</v>
+      </c>
+      <c r="EJ3" s="26" t="s">
+        <v>683</v>
+      </c>
+      <c r="EK3" s="33">
+        <v>2</v>
+      </c>
+      <c r="EL3" s="33">
+        <v>0</v>
+      </c>
+      <c r="EM3" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="EN3" s="35">
+        <v>0</v>
+      </c>
+      <c r="EO3" s="35">
+        <v>2</v>
+      </c>
+      <c r="EP3" s="26"/>
+      <c r="EQ3" s="35"/>
+      <c r="ER3" s="35"/>
+      <c r="ES3" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="ET3" s="33">
+        <v>12</v>
+      </c>
+      <c r="EU3" s="33">
+        <v>0</v>
+      </c>
+      <c r="EV3" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="EW3" s="33">
+        <v>1</v>
+      </c>
+      <c r="EX3" s="33">
+        <v>0</v>
+      </c>
+      <c r="EY3" s="26" t="s">
+        <v>681</v>
+      </c>
+      <c r="EZ3" s="33">
+        <v>3</v>
+      </c>
+      <c r="FA3" s="33">
+        <v>0</v>
+      </c>
+      <c r="FB3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="FC3" s="33">
+        <v>2</v>
+      </c>
+      <c r="FD3" s="33">
+        <v>0</v>
+      </c>
+      <c r="FE3" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="FF3" s="33">
+        <v>2</v>
+      </c>
+      <c r="FG3" s="33">
+        <v>0</v>
+      </c>
+      <c r="FH3" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="FI3" s="33">
+        <v>4</v>
+      </c>
+      <c r="FJ3" s="33">
+        <v>0</v>
+      </c>
+      <c r="FK3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="FL3" s="33">
+        <v>2</v>
+      </c>
+      <c r="FM3" s="33">
+        <v>0</v>
+      </c>
+      <c r="FN3" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="FO3" s="33">
+        <v>1</v>
+      </c>
+      <c r="FP3" s="33">
+        <v>0</v>
+      </c>
+      <c r="FQ3" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="FR3" s="33">
+        <v>2</v>
+      </c>
+      <c r="FS3" s="33">
+        <v>0</v>
+      </c>
+      <c r="FT3" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="FU3" s="35">
+        <v>3</v>
+      </c>
+      <c r="FV3" s="35">
+        <v>0</v>
+      </c>
+      <c r="FW3" s="26" t="s">
+        <v>683</v>
+      </c>
+      <c r="FX3" s="35">
+        <v>1</v>
+      </c>
+      <c r="FY3" s="35">
+        <v>3</v>
+      </c>
+      <c r="FZ3" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="GA3" s="33">
+        <v>6</v>
+      </c>
+      <c r="GB3" s="33">
+        <v>0</v>
+      </c>
+      <c r="GC3" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="GD3" s="33">
+        <v>1</v>
+      </c>
+      <c r="GE3" s="33">
+        <v>0</v>
+      </c>
+      <c r="GF3" s="26" t="s">
+        <v>681</v>
+      </c>
+      <c r="GG3" s="33">
+        <v>4</v>
+      </c>
+      <c r="GH3" s="33">
+        <v>0</v>
+      </c>
+      <c r="GI3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="GJ3" s="33">
+        <v>4</v>
+      </c>
+      <c r="GK3" s="33">
+        <v>0</v>
+      </c>
+      <c r="GL3" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="GM3" s="33">
+        <v>0</v>
+      </c>
+      <c r="GN3" s="33">
+        <v>0</v>
+      </c>
+      <c r="GO3" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="GP3" s="33">
+        <v>8</v>
+      </c>
+      <c r="GQ3" s="33">
+        <v>0</v>
+      </c>
+      <c r="GR3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="GS3" s="33">
+        <v>1</v>
+      </c>
+      <c r="GT3" s="33">
+        <v>0</v>
+      </c>
+      <c r="GU3" s="26" t="s">
+        <v>682</v>
+      </c>
+      <c r="GV3" s="33">
+        <v>1</v>
+      </c>
+      <c r="GW3" s="33">
+        <v>0</v>
+      </c>
+      <c r="GX3" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="GY3" s="33">
+        <v>2</v>
+      </c>
+      <c r="GZ3" s="33">
+        <v>0</v>
+      </c>
+      <c r="HA3" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="HB3" s="35">
+        <v>0</v>
+      </c>
+      <c r="HC3" s="35">
+        <v>3</v>
+      </c>
+      <c r="HD3" s="26"/>
+      <c r="HE3" s="35"/>
+      <c r="HF3" s="35"/>
+      <c r="HG3" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="HH3" s="33">
+        <v>2</v>
+      </c>
+      <c r="HI3" s="33">
+        <v>0</v>
+      </c>
+      <c r="HJ3" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="HK3" s="33">
+        <v>3</v>
+      </c>
+      <c r="HL3" s="33">
+        <v>0</v>
+      </c>
+      <c r="HM3" s="26" t="s">
+        <v>681</v>
+      </c>
+      <c r="HN3" s="33">
+        <v>7</v>
+      </c>
+      <c r="HO3" s="33">
+        <v>0</v>
+      </c>
+      <c r="HP3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="HQ3" s="33">
+        <v>9</v>
+      </c>
+      <c r="HR3" s="33">
+        <v>0</v>
+      </c>
+      <c r="HS3" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="HT3" s="33">
+        <v>2</v>
+      </c>
+      <c r="HU3" s="33">
+        <v>0</v>
+      </c>
+      <c r="HV3" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="HW3" s="33">
+        <v>8</v>
+      </c>
+      <c r="HX3" s="33">
+        <v>0</v>
+      </c>
+      <c r="HY3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="HZ3" s="33">
+        <v>0</v>
+      </c>
+      <c r="IA3" s="33">
+        <v>0</v>
+      </c>
+      <c r="IB3" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="IC3" s="33">
+        <v>1</v>
+      </c>
+      <c r="ID3" s="33">
+        <v>0</v>
+      </c>
+      <c r="IE3" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="IF3" s="33">
+        <v>1</v>
+      </c>
+      <c r="IG3" s="33">
+        <v>0</v>
+      </c>
+      <c r="IH3" s="26" t="s">
+        <v>682</v>
+      </c>
+      <c r="II3" s="35">
+        <v>0</v>
+      </c>
+      <c r="IJ3" s="35">
+        <v>0</v>
+      </c>
+      <c r="IK3" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="IL3" s="35">
+        <v>1</v>
+      </c>
+      <c r="IM3" s="35">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:247" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -4715,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="BJ6" s="3" t="s">
-        <v>103</v>
+        <v>510</v>
       </c>
       <c r="BK6" s="7">
         <v>0</v>
@@ -4775,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="CT6" s="3" t="s">
-        <v>103</v>
+        <v>510</v>
       </c>
       <c r="CU6" s="4">
         <v>0</v>
@@ -4850,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="EA6" s="3" t="s">
-        <v>103</v>
+        <v>510</v>
       </c>
       <c r="EB6" s="6">
         <v>0</v>
@@ -4925,7 +5562,7 @@
         <v>0</v>
       </c>
       <c r="FH6" s="3" t="s">
-        <v>103</v>
+        <v>510</v>
       </c>
       <c r="FI6" s="5">
         <v>0</v>
@@ -5000,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="GO6" s="3" t="s">
-        <v>103</v>
+        <v>510</v>
       </c>
       <c r="GP6" s="2">
         <v>0</v>
@@ -5505,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="BV8" s="3" t="s">
-        <v>103</v>
+        <v>510</v>
       </c>
       <c r="BW8" s="7">
         <v>0</v>
@@ -5534,7 +6171,7 @@
         <v>0</v>
       </c>
       <c r="CK8" s="3" t="s">
-        <v>103</v>
+        <v>510</v>
       </c>
       <c r="CL8" s="4">
         <v>0</v>
@@ -6386,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="AL11" s="3" t="s">
-        <v>103</v>
+        <v>510</v>
       </c>
       <c r="AM11" s="2">
         <v>2</v>
@@ -6458,7 +7095,7 @@
         <v>0</v>
       </c>
       <c r="BS11" s="3" t="s">
-        <v>103</v>
+        <v>510</v>
       </c>
       <c r="BT11" s="7">
         <v>0</v>
@@ -6533,7 +7170,7 @@
         <v>0</v>
       </c>
       <c r="CZ11" s="3" t="s">
-        <v>103</v>
+        <v>510</v>
       </c>
       <c r="DA11" s="4">
         <v>0</v>
@@ -6607,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="ED11" s="3" t="s">
-        <v>103</v>
+        <v>510</v>
       </c>
       <c r="EE11" s="6">
         <v>0</v>
@@ -6682,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="FK11" s="3" t="s">
-        <v>103</v>
+        <v>510</v>
       </c>
       <c r="FL11" s="5">
         <v>0</v>
@@ -6774,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="GU11" s="3" t="s">
-        <v>103</v>
+        <v>510</v>
       </c>
       <c r="GV11" s="2">
         <v>0</v>
@@ -6840,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="HY11" s="3" t="s">
-        <v>103</v>
+        <v>510</v>
       </c>
       <c r="HZ11" s="4">
         <v>0</v>
@@ -11930,7 +12567,7 @@
         <v>1</v>
       </c>
       <c r="HM33" s="3" t="s">
-        <v>103</v>
+        <v>510</v>
       </c>
       <c r="HN33" s="4">
         <v>3</v>
@@ -55455,13 +56092,13 @@
           <x14:formula1>
             <xm:f>veg_list!$A$2:$A$148</xm:f>
           </x14:formula1>
-          <xm:sqref>Q2:Q7 Q197:Q421 ES2:ES7 ES362:ES421 EV2:EV7 EV362:EV421 EY2:EY7 EY362:EY421 FB2:FB7 FB362:FB421 FE2:FE6 FE361:FE421 FH2:FH6 FH361:FH421 FK2:FK6 FK361:FK421 FN2:FN6 FN361:FN421 FQ2:FQ4 FQ359:FQ421 FT2:FT4 FT359:FT421 FZ2:FZ7 FZ362:FZ421 GC2:GC7 GC362:GC421 GF2:GF7 GF362:GF421 GI2:GI6 GI361:GI421 GL2:GL6 GL361:GL421 GO2:GO6 GO361:GO421 GR2:GR4 GR359:GR421 GU2:GU4 GU359:GU421 GX2:GX4 GX359:GX421 HA2:HA4 HA359:HA421 HG2:HG7 HG362:HG421 HJ2:HJ7 HJ362:HJ421 HM2:HM7 HM362:HM421 HP2:HP7 HP362:HP421 HS2:HS4 HS359:HS421 HV2:HV4 HV359:HV421 HY2:HY4 HY359:HY421 IB2:IB4 IB359:IB421 IE2:IE4 IE359:IE421 IH2:IH4 IH359:IH421 FW2:FW4 FW359:FW421 HD2:HD4 HD359:HD421 IK2:IK4 IK359:IK421 EP2:EP4 EP359:EP421 DI2:DI4 DI359:DI421 CB2:CB4 CB359:CB421 AU2:AU4 AU359:AU421 EM2:EM4 EM359:EM421 EJ2:EJ4 EJ359:EJ421 EG2:EG6 EG361:EG421 ED2:ED6 ED361:ED421 EA2:EA7 EA416:EA421 DX2:DX6 DX361:DX421 DU2:DU6 DU361:DU421 DR2:DR7 DR362:DR421 DO2:DO7 DO362:DO421 DL2:DL7 DL362:DL421 DF2:DF4 DF359:DF421 DC2:DC4 DC359:DC421 CZ2:CZ6 CZ361:CZ421 CW2:CW6 CW361:CW421 CT2:CT6 CT361:CT421 CQ2:CQ6 CQ361:CQ421 CN2:CN7 CN362:CN421 CK2:CK7 CK362:CK421 CH2:CH7 CH362:CH421 CE2:CE7 CE362:CE421 BY2:BY4 BY359:BY421 BV2:BV4 BV359:BV421 BS2:BS4 BS359:BS421 BP2:BP4 BP359:BP421 BM2:BM4 BM359:BM421 BJ2:BJ6 BJ361:BJ421 BG2:BG6 BG361:BG421 BD2:BD7 BD362:BD421 BA2:BA7 BA362:BA421 AX2:AX7 AX362:AX421 AR2:AR4 AR359:AR421 AO2:AO4 AO359:AO421 AL2:AL6 AL361:AL421 AI362:AI421 AI2:AI6 AF2:AF7 AF362:AF421 AC2:AC7 AC362:AC421 Z2:Z7 Z362:Z421 W2:W7 W362:W421 T2:T7 T362:T421</xm:sqref>
+          <xm:sqref>T362:T421 Q197:Q421 ES362:ES421 EV362:EV421 EY362:EY421 FB362:FB421 FE361:FE421 FH361:FH421 FK361:FK421 FN361:FN421 FQ359:FQ421 FT359:FT421 FZ362:FZ421 GC362:GC421 GF362:GF421 GI361:GI421 GL361:GL421 GO361:GO421 GR359:GR421 GU359:GU421 GX359:GX421 HA359:HA421 HG362:HG421 HJ362:HJ421 HM362:HM421 HP362:HP421 HS359:HS421 HV359:HV421 HY359:HY421 IB359:IB421 IE359:IE421 IH359:IH421 EP2:EP4 FW359:FW421 ES4:ES7 HD359:HD421 FZ4:FZ7 IK359:IK421 EP359:EP421 DI2:DI4 DI359:DI421 CB2:CB4 CB359:CB421 AU2:AU4 AU359:AU421 EM359:EM421 EJ359:EJ421 EG361:EG421 ED361:ED421 EA416:EA421 DX361:DX421 DU361:DU421 DR362:DR421 DL4:DL7 DO362:DO421 DC2:DC4 DL362:DL421 DF2:DF4 DF359:DF421 DC359:DC421 CZ361:CZ421 CW361:CW421 CT361:CT421 CQ361:CQ421 CN362:CN421 CK362:CK421 CE4:CE7 CH362:CH421 BV2:BV4 CE362:CE421 BY2:BY4 BY359:BY421 BV359:BV421 BS359:BS421 BP359:BP421 BM359:BM421 BJ361:BJ421 BG361:BG421 BD362:BD421 AX4:AX7 BA362:BA421 Q4:Q7 AX362:AX421 AR2:AR4 AR359:AR421 AO2:AO4 AO359:AO421 AL2:AL6 AL361:AL421 AI362:AI421 AI2:AI6 AF2:AF7 AF362:AF421 AC2:AC7 AC362:AC421 Z2:Z7 Z362:Z421 W2:W7 W362:W421 T2:T7 Q2 AX2 BA2:BA7 BD2:BD7 BG2:BG6 BJ2:BJ6 BM2:BM4 BP2:BP4 BS2:BS4 CE2 CH2:CH7 CK2:CK7 CN2:CN7 CQ2:CQ6 CT2:CT6 CW2:CW6 CZ2:CZ6 DL2 DO2:DO7 DR2:DR7 DU2:DU6 DX2:DX6 EA2:EA7 ED2:ED6 EG2:EG6 EJ2:EJ4 EM2:EM4 FW2:FW4 FT2:FT4 FQ2:FQ4 FN2:FN6 FK2:FK6 FH2:FH6 FE2:FE6 FB2:FB7 EY2:EY7 EV2:EV7 ES2 HD2:HD4 HA2:HA4 GX2:GX4 GU2:GU4 GR2:GR4 GO2:GO6 GL2:GL6 GI2:GI6 GF2:GF7 GC2:GC7 FZ2 IK2:IK4 IH2:IH4 IE2:IE4 IB2:IB4 HY2:HY4 HV2:HV4 HS2:HS4 HP2:HP7 HM2:HM7 HJ2:HJ7 HG2 HG4:HG7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>veg_list!$A$2:$A$146</xm:f>
           </x14:formula1>
-          <xm:sqref>ES8:ES90 CK90 FB8:FB95 BD90 CQ141 BA141 FH133 EV133 DO136:DO138 DL128:DL138 GC140 BA144 DO141 CH144 DX143 CQ144 HS5:HS141 DL8:DL125 BJ7:BJ140 DU11:DU139 CN8:CN136 DO96:DO134 FE7:FE132 Z8:Z132 HM150 DR153 FB97:FB361 FE134:FE360 BJ142:BJ360 Z134:Z361 DL141:DL361 BG7:BG360 T96:T361 CN138:CN361 ES92:ES361 GI94:GI360 DO144:DO361 Q8:Q196 HP8:HP361 AX8:AX361 HS143:HS358 DU141:DU360 FZ94:FZ361 EA11:EA415 AF8:AF361 BM5:BM358 CE8:CE361 HG94:HG361</xm:sqref>
+          <xm:sqref>ES8:ES90 CK90 FB8:FB95 BD90 CQ141 BA141 FH133 EV133 DO136:DO138 DL128:DL138 GC140 BA144 DO141 CH144 DX143 CQ144 HS5:HS141 DL8:DL125 BJ7:BJ140 DU11:DU139 CN8:CN136 DO96:DO134 FE7:FE132 Z8:Z132 HM150 DR153 FB97:FB361 FE134:FE360 BJ142:BJ360 Z134:Z361 DL141:DL361 BG7:BG360 T96:T361 CN138:CN361 ES92:ES361 GI94:GI360 DO144:DO361 Q8:Q196 HP8:HP361 AX8:AX361 HS143:HS358 DU141:DU360 FZ94:FZ361 EA11:EA415 AF8:AF361 BM5:BM358 CE8:CE361 HG94:HG361 Q3 AX3 CE3 DL3 ES3 FZ3 HG3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
@@ -55513,10 +56150,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C133"/>
+  <dimension ref="A1:C137"/>
   <sheetViews>
     <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133"/>
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56581,6 +57218,38 @@
         <v>659</v>
       </c>
     </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>681</v>
+      </c>
+      <c r="B134" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>682</v>
+      </c>
+      <c r="B135" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>683</v>
+      </c>
+      <c r="B136" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>105</v>
+      </c>
+      <c r="B137" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B124">
     <sortCondition ref="A91"/>
